--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1573323.256786416</v>
+        <v>1567479.121781287</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.533256414</v>
+        <v>6239134.533256415</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.9721069179</v>
+        <v>840694.972106918</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.7627700121625</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>199.7770650174065</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>33.84234274505295</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>90.05347083351276</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>143.8939439276403</v>
       </c>
       <c r="G5" t="n">
-        <v>132.6299340169942</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -977,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1031,7 +1031,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>110.4502061272574</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>104.6795171151345</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>208.7938001483153</v>
+        <v>237.9332843063845</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1469,7 +1469,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I12" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030168</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>190.5400452173542</v>
@@ -1584,19 +1584,19 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2142514133935</v>
+        <v>260.5333434223668</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>58.87967567244701</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I14" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040314</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I15" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030168</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>190.5400452173542</v>
+        <v>130.4482050673214</v>
       </c>
       <c r="T16" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V16" t="n">
-        <v>101.537296110891</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1943,7 +1943,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I18" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030168</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2019,10 +2019,10 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H19" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U19" t="n">
-        <v>64.07612383736073</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>186.6484627080922</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2101,7 +2101,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I20" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040314</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I21" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030168</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0700504016732</v>
+        <v>130.4482050673214</v>
       </c>
       <c r="H22" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.7379838856521</v>
@@ -2298,13 +2298,13 @@
         <v>286.2142514133935</v>
       </c>
       <c r="V22" t="n">
-        <v>92.43266564418117</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I23" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040314</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I24" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030168</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7803414255491</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>34.32389483613319</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2575,7 +2575,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I26" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040314</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0030623803219</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I27" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030168</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>28.8186997480234</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>190.5400452173542</v>
+        <v>130.4482050673214</v>
       </c>
       <c r="T28" t="n">
         <v>219.7379838856521</v>
@@ -2809,10 +2809,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H29" t="n">
-        <v>295.6178616169272</v>
+        <v>295.617861616927</v>
       </c>
       <c r="I29" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040314</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I30" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030168</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>60.25229878394295</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>226.1224112633607</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3049,7 +3049,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I32" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040314</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I33" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030168</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>4.572083017992573</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H34" t="n">
-        <v>145.148367782564</v>
+        <v>16.86931745267245</v>
       </c>
       <c r="I34" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2142514133935</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I35" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040314</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I36" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030168</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>121.3064037864401</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>190.5400452173542</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>226.1224112633607</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I38" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040289</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I39" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030168</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>28.81869974802212</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S40" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U40" t="n">
-        <v>150.8109594842315</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3757,10 +3757,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H41" t="n">
-        <v>295.617861616927</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I41" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040314</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T41" t="n">
         <v>204.3497241367009</v>
@@ -3839,7 +3839,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I42" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030168</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.81869974802235</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>190.5400452173542</v>
+        <v>130.4482050673214</v>
       </c>
       <c r="T43" t="n">
         <v>219.7379838856521</v>
@@ -3997,7 +3997,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I44" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040314</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>111.4352990145559</v>
+        <v>111.4352990145557</v>
       </c>
       <c r="T44" t="n">
         <v>204.3497241367009</v>
@@ -4076,7 +4076,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I45" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030168</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>119.7401400319047</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>34.32389483613349</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U46" t="n">
         <v>286.2142514133935</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W2" t="n">
-        <v>2186.563601017709</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="X2" t="n">
-        <v>1813.097842756629</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.958510780817</v>
+        <v>1993.546461473041</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4427,34 +4427,34 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.0633493392339</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>88.12716641132701</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>637.1658823544013</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>637.1658823544013</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>637.1658823544013</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>637.1658823544013</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694736</v>
+        <v>382.4813941485145</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1448.521729839487</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="C5" t="n">
-        <v>1079.559212899076</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="D5" t="n">
-        <v>1079.559212899076</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="E5" t="n">
-        <v>1079.559212899076</v>
+        <v>1097.914903999813</v>
       </c>
       <c r="F5" t="n">
-        <v>668.5733081094681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1838.661061815299</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1838.661061815299</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y5" t="n">
-        <v>1448.521729839487</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="6">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
         <v>814.0449459359563</v>
@@ -4682,7 +4682,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>323.2572191628418</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="C7" t="n">
-        <v>323.2572191628418</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="D7" t="n">
-        <v>323.2572191628418</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E7" t="n">
-        <v>323.2572191628418</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
-        <v>323.2572191628418</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>323.2572191628418</v>
+        <v>622.3920982315509</v>
       </c>
       <c r="X7" t="n">
-        <v>323.2572191628418</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="Y7" t="n">
-        <v>323.2572191628418</v>
+        <v>394.4025473335336</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1452.061221751177</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C8" t="n">
-        <v>1452.061221751177</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D8" t="n">
-        <v>1093.795523144427</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="E8" t="n">
-        <v>1093.795523144427</v>
+        <v>1276.695321531225</v>
       </c>
       <c r="F8" t="n">
-        <v>682.8096183548193</v>
+        <v>865.7094167416178</v>
       </c>
       <c r="G8" t="n">
-        <v>264.8458102530062</v>
+        <v>447.7456086398047</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y8" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="9">
@@ -4874,40 +4874,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5041,28 +5041,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J11" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K11" t="n">
-        <v>1086.017693327009</v>
+        <v>597.7080858612028</v>
       </c>
       <c r="L11" t="n">
-        <v>1611.438070502395</v>
+        <v>1446.817951496195</v>
       </c>
       <c r="M11" t="n">
-        <v>2127.824549292078</v>
+        <v>2408.222828443783</v>
       </c>
       <c r="N11" t="n">
-        <v>2657.180509552854</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O11" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P11" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R11" t="n">
         <v>4785.883460762037</v>
@@ -5120,22 +5120,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J12" t="n">
-        <v>258.3150913629246</v>
+        <v>184.4590143936092</v>
       </c>
       <c r="K12" t="n">
-        <v>488.1430095111811</v>
+        <v>414.2869325418657</v>
       </c>
       <c r="L12" t="n">
-        <v>843.4975491433823</v>
+        <v>769.6414721740668</v>
       </c>
       <c r="M12" t="n">
-        <v>1277.536404075618</v>
+        <v>1203.680327106302</v>
       </c>
       <c r="N12" t="n">
-        <v>1737.471620890736</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O12" t="n">
-        <v>2136.002693439725</v>
+        <v>2062.146616470409</v>
       </c>
       <c r="P12" t="n">
         <v>2436.525948037006</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.5523471478652</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="C13" t="n">
-        <v>803.5523471478652</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="D13" t="n">
-        <v>803.5523471478652</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="E13" t="n">
-        <v>655.6392535654721</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="F13" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G13" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H13" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I13" t="n">
         <v>95.71766921524075</v>
@@ -5202,16 +5202,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K13" t="n">
-        <v>336.6421130738839</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L13" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M13" t="n">
-        <v>983.9813277239498</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N13" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O13" t="n">
         <v>1611.825859961355</v>
@@ -5223,28 +5223,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R13" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S13" t="n">
-        <v>1628.774119163341</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T13" t="n">
-        <v>1406.816559682884</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U13" t="n">
-        <v>1117.711255224911</v>
+        <v>1235.491404997546</v>
       </c>
       <c r="V13" t="n">
-        <v>863.0267670190239</v>
+        <v>980.8069167916592</v>
       </c>
       <c r="W13" t="n">
-        <v>803.5523471478652</v>
+        <v>691.3897467546985</v>
       </c>
       <c r="X13" t="n">
-        <v>803.5523471478652</v>
+        <v>463.4001958566812</v>
       </c>
       <c r="Y13" t="n">
-        <v>803.5523471478652</v>
+        <v>242.6076167131511</v>
       </c>
     </row>
     <row r="14">
@@ -5269,7 +5269,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G14" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H14" t="n">
         <v>141.5554198924156</v>
@@ -5278,25 +5278,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J14" t="n">
-        <v>443.7150397139484</v>
+        <v>330.2173920076476</v>
       </c>
       <c r="K14" t="n">
-        <v>1086.017693327009</v>
+        <v>972.5200456207082</v>
       </c>
       <c r="L14" t="n">
-        <v>1611.438070502395</v>
+        <v>1821.629911255701</v>
       </c>
       <c r="M14" t="n">
-        <v>2127.824549292078</v>
+        <v>2338.016390045384</v>
       </c>
       <c r="N14" t="n">
-        <v>2657.180509552854</v>
+        <v>2867.372350306161</v>
       </c>
       <c r="O14" t="n">
-        <v>3520.693250262004</v>
+        <v>3730.88509101531</v>
       </c>
       <c r="P14" t="n">
-        <v>4220.007013476401</v>
+        <v>4430.198854229707</v>
       </c>
       <c r="Q14" t="n">
         <v>4667.940766252041</v>
@@ -5357,25 +5357,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J15" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K15" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L15" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M15" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N15" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O15" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P15" t="n">
-        <v>2362.66987106769</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q15" t="n">
         <v>2587.498588679581</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1122.605169488108</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C16" t="n">
-        <v>953.668986560201</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D16" t="n">
-        <v>803.5523471478652</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E16" t="n">
-        <v>655.6392535654721</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F16" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G16" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H16" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I16" t="n">
         <v>95.71766921524075</v>
@@ -5439,16 +5439,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K16" t="n">
-        <v>336.6421130738839</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L16" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M16" t="n">
-        <v>983.9813277239498</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N16" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O16" t="n">
         <v>1611.825859961355</v>
@@ -5460,28 +5460,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R16" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S16" t="n">
-        <v>1628.774119163341</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T16" t="n">
-        <v>1406.816559682884</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U16" t="n">
-        <v>1406.816559682884</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V16" t="n">
-        <v>1304.253634318348</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W16" t="n">
-        <v>1304.253634318348</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X16" t="n">
-        <v>1304.253634318348</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y16" t="n">
-        <v>1304.253634318348</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="17">
@@ -5515,28 +5515,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J17" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K17" t="n">
-        <v>604.6058461270954</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L17" t="n">
-        <v>1453.715711762088</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M17" t="n">
-        <v>1970.102190551772</v>
+        <v>2038.029435346739</v>
       </c>
       <c r="N17" t="n">
-        <v>2932.431605980412</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O17" t="n">
-        <v>3795.944346689562</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P17" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q17" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R17" t="n">
         <v>4785.883460762037</v>
@@ -5594,19 +5594,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J18" t="n">
-        <v>258.3150913629246</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K18" t="n">
-        <v>488.1430095111811</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L18" t="n">
-        <v>843.4975491433823</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M18" t="n">
-        <v>1277.536404075618</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N18" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O18" t="n">
         <v>2136.002693439725</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1122.605169488108</v>
+        <v>708.3848753661357</v>
       </c>
       <c r="C19" t="n">
-        <v>953.668986560201</v>
+        <v>708.3848753661357</v>
       </c>
       <c r="D19" t="n">
-        <v>803.5523471478652</v>
+        <v>558.2682359537999</v>
       </c>
       <c r="E19" t="n">
-        <v>655.6392535654721</v>
+        <v>410.3551423714068</v>
       </c>
       <c r="F19" t="n">
-        <v>508.7493060675617</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G19" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H19" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I19" t="n">
         <v>95.71766921524075</v>
@@ -5676,16 +5676,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K19" t="n">
-        <v>336.6421130738839</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L19" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M19" t="n">
-        <v>983.9813277239498</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N19" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O19" t="n">
         <v>1611.825859961355</v>
@@ -5697,28 +5697,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R19" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S19" t="n">
-        <v>1913.078649972671</v>
+        <v>1628.77411916334</v>
       </c>
       <c r="T19" t="n">
-        <v>1913.078649972671</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U19" t="n">
-        <v>1848.355292561195</v>
+        <v>1117.71125522491</v>
       </c>
       <c r="V19" t="n">
-        <v>1593.670804355308</v>
+        <v>929.1774545096658</v>
       </c>
       <c r="W19" t="n">
-        <v>1304.253634318348</v>
+        <v>929.1774545096658</v>
       </c>
       <c r="X19" t="n">
-        <v>1304.253634318348</v>
+        <v>929.1774545096658</v>
       </c>
       <c r="Y19" t="n">
-        <v>1304.253634318348</v>
+        <v>708.3848753661357</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C20" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D20" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E20" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F20" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G20" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H20" t="n">
         <v>141.5554198924156</v>
@@ -5752,28 +5752,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J20" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K20" t="n">
-        <v>597.708085861203</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L20" t="n">
-        <v>1385.689493054302</v>
+        <v>1611.438070502395</v>
       </c>
       <c r="M20" t="n">
-        <v>2347.09437000189</v>
+        <v>2127.824549292079</v>
       </c>
       <c r="N20" t="n">
-        <v>3309.42378543053</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O20" t="n">
-        <v>3795.944346689562</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P20" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q20" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R20" t="n">
         <v>4785.883460762037</v>
@@ -5785,19 +5785,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U20" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V20" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W20" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X20" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y20" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="21">
@@ -5831,19 +5831,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J21" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K21" t="n">
-        <v>488.1430095111811</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L21" t="n">
-        <v>843.4975491433823</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M21" t="n">
-        <v>1277.536404075618</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N21" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O21" t="n">
         <v>2136.002693439725</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3676.357157937231</v>
+        <v>227.4835329196058</v>
       </c>
       <c r="C22" t="n">
-        <v>3676.357157937231</v>
+        <v>227.4835329196058</v>
       </c>
       <c r="D22" t="n">
-        <v>3676.357157937231</v>
+        <v>227.4835329196058</v>
       </c>
       <c r="E22" t="n">
-        <v>3528.444064354838</v>
+        <v>227.4835329196058</v>
       </c>
       <c r="F22" t="n">
-        <v>3381.554116856928</v>
+        <v>227.4835329196058</v>
       </c>
       <c r="G22" t="n">
-        <v>3213.806591198672</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H22" t="n">
-        <v>3067.192078286991</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I22" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J22" t="n">
-        <v>3010.548472161395</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K22" t="n">
-        <v>3209.44692386325</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L22" t="n">
-        <v>3519.494898304408</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M22" t="n">
-        <v>3856.786138513316</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N22" t="n">
-        <v>4191.4919633349</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O22" t="n">
-        <v>4484.630670750721</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P22" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q22" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R22" t="n">
-        <v>4694.043622091449</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S22" t="n">
-        <v>4501.578929952707</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T22" t="n">
-        <v>4279.62137047225</v>
+        <v>1691.121090492214</v>
       </c>
       <c r="U22" t="n">
-        <v>3990.516066014277</v>
+        <v>1402.015786034241</v>
       </c>
       <c r="V22" t="n">
-        <v>3897.149737080761</v>
+        <v>1147.331297828354</v>
       </c>
       <c r="W22" t="n">
-        <v>3897.149737080761</v>
+        <v>857.914127791393</v>
       </c>
       <c r="X22" t="n">
-        <v>3897.149737080761</v>
+        <v>629.9245768933756</v>
       </c>
       <c r="Y22" t="n">
-        <v>3676.357157937231</v>
+        <v>409.1319977498455</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C23" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D23" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E23" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F23" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G23" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H23" t="n">
         <v>141.5554198924156</v>
@@ -5989,28 +5989,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J23" t="n">
-        <v>276.3093906935954</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K23" t="n">
-        <v>855.1603485090773</v>
+        <v>597.7080858612028</v>
       </c>
       <c r="L23" t="n">
-        <v>1704.27021414407</v>
+        <v>1446.817951496195</v>
       </c>
       <c r="M23" t="n">
-        <v>2665.675091091658</v>
+        <v>2408.222828443783</v>
       </c>
       <c r="N23" t="n">
-        <v>3628.004506520298</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O23" t="n">
-        <v>4114.52506777933</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P23" t="n">
-        <v>4495.258109903959</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q23" t="n">
-        <v>4733.000021926293</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R23" t="n">
         <v>4785.883460762037</v>
@@ -6022,19 +6022,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U23" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V23" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W23" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X23" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y23" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J24" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K24" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L24" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M24" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N24" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O24" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P24" t="n">
         <v>2436.525948037006</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>708.9263542545928</v>
+        <v>414.7704915554834</v>
       </c>
       <c r="C25" t="n">
-        <v>539.9901713266859</v>
+        <v>245.8343086275765</v>
       </c>
       <c r="D25" t="n">
-        <v>389.8735319143501</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E25" t="n">
-        <v>241.960438331957</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F25" t="n">
-        <v>241.960438331957</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G25" t="n">
-        <v>241.960438331957</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H25" t="n">
         <v>95.71766921524075</v>
@@ -6150,16 +6150,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K25" t="n">
-        <v>336.6421130738839</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L25" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M25" t="n">
-        <v>983.9813277239498</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N25" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O25" t="n">
         <v>1611.825859961355</v>
@@ -6171,28 +6171,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R25" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S25" t="n">
-        <v>1628.774119163341</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T25" t="n">
-        <v>1628.774119163341</v>
+        <v>1878.408049128092</v>
       </c>
       <c r="U25" t="n">
-        <v>1628.774119163341</v>
+        <v>1589.302744670118</v>
       </c>
       <c r="V25" t="n">
-        <v>1628.774119163341</v>
+        <v>1334.618256464231</v>
       </c>
       <c r="W25" t="n">
-        <v>1339.35694912638</v>
+        <v>1045.201086427271</v>
       </c>
       <c r="X25" t="n">
-        <v>1111.367398228363</v>
+        <v>817.2115355292533</v>
       </c>
       <c r="Y25" t="n">
-        <v>890.5748190848325</v>
+        <v>596.4189563857232</v>
       </c>
     </row>
     <row r="26">
@@ -6211,43 +6211,43 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E26" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F26" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G26" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H26" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924155</v>
       </c>
       <c r="I26" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J26" t="n">
-        <v>276.3093906935954</v>
+        <v>418.4736939033439</v>
       </c>
       <c r="K26" t="n">
-        <v>918.6120443066561</v>
+        <v>739.8723890709514</v>
       </c>
       <c r="L26" t="n">
-        <v>1767.721909941649</v>
+        <v>1175.497652300998</v>
       </c>
       <c r="M26" t="n">
-        <v>2665.675091091658</v>
+        <v>2136.902529248586</v>
       </c>
       <c r="N26" t="n">
-        <v>3628.004506520298</v>
+        <v>3099.231944677226</v>
       </c>
       <c r="O26" t="n">
-        <v>4114.52506777933</v>
+        <v>3585.752505936257</v>
       </c>
       <c r="P26" t="n">
-        <v>4495.258109903959</v>
+        <v>4285.066269150654</v>
       </c>
       <c r="Q26" t="n">
-        <v>4733.000021926293</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R26" t="n">
         <v>4785.883460762037</v>
@@ -6262,13 +6262,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V26" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W26" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X26" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y26" t="n">
         <v>2765.933610202796</v>
@@ -6305,19 +6305,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J27" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K27" t="n">
-        <v>488.1430095111811</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L27" t="n">
-        <v>843.4975491433823</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M27" t="n">
-        <v>1277.536404075618</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N27" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O27" t="n">
         <v>2136.002693439725</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C28" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D28" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E28" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F28" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G28" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H28" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I28" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J28" t="n">
-        <v>3010.548472161395</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K28" t="n">
-        <v>3209.44692386325</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L28" t="n">
-        <v>3519.494898304408</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M28" t="n">
-        <v>3856.786138513316</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N28" t="n">
-        <v>4191.4919633349</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O28" t="n">
-        <v>4484.630670750721</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P28" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q28" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R28" t="n">
-        <v>4694.043622091449</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S28" t="n">
-        <v>4501.578929952707</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T28" t="n">
-        <v>4279.62137047225</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U28" t="n">
-        <v>3990.516066014277</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V28" t="n">
-        <v>3735.831577808391</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W28" t="n">
-        <v>3446.41440777143</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X28" t="n">
-        <v>3218.424856873413</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y28" t="n">
-        <v>2997.632277729883</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="29">
@@ -6445,16 +6445,16 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D29" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E29" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F29" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G29" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H29" t="n">
         <v>141.5554198924156</v>
@@ -6463,28 +6463,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J29" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K29" t="n">
-        <v>918.6120443066561</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L29" t="n">
-        <v>1767.721909941649</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M29" t="n">
-        <v>2729.126786889237</v>
+        <v>2038.029435346739</v>
       </c>
       <c r="N29" t="n">
-        <v>3628.004506520298</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O29" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P29" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q29" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R29" t="n">
         <v>4785.883460762037</v>
@@ -6542,25 +6542,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J30" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K30" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L30" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M30" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N30" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O30" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P30" t="n">
-        <v>2362.66987106769</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q30" t="n">
         <v>2587.498588679581</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3611.351207647403</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C31" t="n">
-        <v>3442.415024719496</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D31" t="n">
-        <v>3442.415024719496</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E31" t="n">
-        <v>3442.415024719496</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F31" t="n">
-        <v>3381.554116856928</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G31" t="n">
-        <v>3213.806591198672</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H31" t="n">
-        <v>3067.192078286991</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I31" t="n">
-        <v>2968.522480004607</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J31" t="n">
-        <v>3010.548472161395</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K31" t="n">
-        <v>3209.44692386325</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L31" t="n">
-        <v>3519.494898304408</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M31" t="n">
-        <v>3856.786138513316</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N31" t="n">
-        <v>4191.4919633349</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O31" t="n">
-        <v>4484.630670750721</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P31" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q31" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R31" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S31" t="n">
-        <v>4785.883460762037</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T31" t="n">
-        <v>4785.883460762037</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U31" t="n">
-        <v>4785.883460762037</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V31" t="n">
-        <v>4531.198972556151</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W31" t="n">
-        <v>4241.78180251919</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X31" t="n">
-        <v>4013.792251621173</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y31" t="n">
-        <v>3792.999672477643</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C32" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D32" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E32" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F32" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G32" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H32" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I32" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J32" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K32" t="n">
-        <v>827.387460541654</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L32" t="n">
-        <v>1676.497326176647</v>
+        <v>1611.438070502395</v>
       </c>
       <c r="M32" t="n">
-        <v>2192.88380496633</v>
+        <v>2127.824549292079</v>
       </c>
       <c r="N32" t="n">
-        <v>2722.239765227107</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O32" t="n">
-        <v>3585.752505936257</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P32" t="n">
-        <v>4285.066269150653</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q32" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R32" t="n">
         <v>4785.883460762037</v>
@@ -6733,19 +6733,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U32" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V32" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W32" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X32" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y32" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="33">
@@ -6779,19 +6779,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J33" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K33" t="n">
-        <v>488.1430095111811</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L33" t="n">
-        <v>843.4975491433823</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M33" t="n">
-        <v>1277.536404075618</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N33" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O33" t="n">
         <v>2136.002693439725</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>345.620046084046</v>
+        <v>449.4410924000624</v>
       </c>
       <c r="C34" t="n">
-        <v>345.620046084046</v>
+        <v>280.5049094721555</v>
       </c>
       <c r="D34" t="n">
-        <v>345.620046084046</v>
+        <v>280.5049094721555</v>
       </c>
       <c r="E34" t="n">
-        <v>345.620046084046</v>
+        <v>280.5049094721555</v>
       </c>
       <c r="F34" t="n">
-        <v>345.620046084046</v>
+        <v>280.5049094721555</v>
       </c>
       <c r="G34" t="n">
-        <v>341.001780409306</v>
+        <v>112.7573838138998</v>
       </c>
       <c r="H34" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I34" t="n">
         <v>95.71766921524075</v>
@@ -6861,16 +6861,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K34" t="n">
-        <v>336.6421130738839</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L34" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M34" t="n">
-        <v>983.9813277239498</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N34" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O34" t="n">
         <v>1611.825859961355</v>
@@ -6882,28 +6882,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R34" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S34" t="n">
-        <v>1628.774119163341</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T34" t="n">
-        <v>1406.816559682884</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U34" t="n">
-        <v>1117.711255224911</v>
+        <v>1623.973345514697</v>
       </c>
       <c r="V34" t="n">
-        <v>863.0267670190239</v>
+        <v>1369.28885730881</v>
       </c>
       <c r="W34" t="n">
-        <v>573.6095969820633</v>
+        <v>1079.87168727185</v>
       </c>
       <c r="X34" t="n">
-        <v>345.620046084046</v>
+        <v>851.8821363738323</v>
       </c>
       <c r="Y34" t="n">
-        <v>345.620046084046</v>
+        <v>631.0895572303021</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J35" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K35" t="n">
-        <v>597.708085861203</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L35" t="n">
-        <v>1327.278034693952</v>
+        <v>1611.438070502395</v>
       </c>
       <c r="M35" t="n">
-        <v>2288.68291164154</v>
+        <v>2127.824549292079</v>
       </c>
       <c r="N35" t="n">
-        <v>3251.012327070181</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O35" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P35" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q35" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R35" t="n">
         <v>4785.883460762037</v>
@@ -7016,25 +7016,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J36" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K36" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L36" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M36" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N36" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O36" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P36" t="n">
-        <v>2362.66987106769</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q36" t="n">
         <v>2587.498588679581</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1122.605169488108</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C37" t="n">
-        <v>953.668986560201</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D37" t="n">
-        <v>803.5523471478652</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E37" t="n">
-        <v>655.6392535654721</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F37" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G37" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H37" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I37" t="n">
         <v>95.71766921524075</v>
@@ -7098,16 +7098,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K37" t="n">
-        <v>336.6421130738839</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L37" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M37" t="n">
-        <v>983.9813277239498</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N37" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O37" t="n">
         <v>1611.825859961355</v>
@@ -7125,22 +7125,22 @@
         <v>1720.613957833929</v>
       </c>
       <c r="T37" t="n">
-        <v>1720.613957833929</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U37" t="n">
-        <v>1720.613957833929</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V37" t="n">
-        <v>1465.929469628042</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W37" t="n">
-        <v>1465.929469628042</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X37" t="n">
-        <v>1465.929469628042</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y37" t="n">
-        <v>1245.136890484512</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="38">
@@ -7156,46 +7156,46 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E38" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F38" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H38" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924154</v>
       </c>
       <c r="I38" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J38" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K38" t="n">
-        <v>597.708085861203</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L38" t="n">
-        <v>1446.817951496196</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M38" t="n">
-        <v>2408.222828443784</v>
+        <v>2038.029435346739</v>
       </c>
       <c r="N38" t="n">
-        <v>3370.552243872424</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O38" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P38" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q38" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R38" t="n">
         <v>4785.883460762037</v>
@@ -7253,25 +7253,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J39" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K39" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L39" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M39" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N39" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O39" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P39" t="n">
-        <v>2362.66987106769</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q39" t="n">
         <v>2587.498588679581</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>393.7474022099696</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C40" t="n">
-        <v>393.7474022099696</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D40" t="n">
-        <v>243.6307627976338</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E40" t="n">
         <v>95.71766921524075</v>
@@ -7335,16 +7335,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K40" t="n">
-        <v>336.6421130738839</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L40" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M40" t="n">
-        <v>983.9813277239498</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N40" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O40" t="n">
         <v>1611.825859961355</v>
@@ -7356,28 +7356,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R40" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S40" t="n">
-        <v>1720.613957833929</v>
+        <v>1628.77411916334</v>
       </c>
       <c r="T40" t="n">
-        <v>1720.613957833929</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U40" t="n">
-        <v>1568.279655324604</v>
+        <v>1117.71125522491</v>
       </c>
       <c r="V40" t="n">
-        <v>1313.595167118717</v>
+        <v>863.0267670190236</v>
       </c>
       <c r="W40" t="n">
-        <v>1024.177997081757</v>
+        <v>573.6095969820631</v>
       </c>
       <c r="X40" t="n">
-        <v>796.1884461837394</v>
+        <v>345.6200460840457</v>
       </c>
       <c r="Y40" t="n">
-        <v>575.3958670402093</v>
+        <v>124.8274669405156</v>
       </c>
     </row>
     <row r="41">
@@ -7393,46 +7393,46 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E41" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F41" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G41" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H41" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I41" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J41" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K41" t="n">
-        <v>597.708085861203</v>
+        <v>765.1137348815558</v>
       </c>
       <c r="L41" t="n">
-        <v>1327.278034693952</v>
+        <v>1614.223600516548</v>
       </c>
       <c r="M41" t="n">
-        <v>2288.68291164154</v>
+        <v>2130.610079306232</v>
       </c>
       <c r="N41" t="n">
-        <v>3251.012327070181</v>
+        <v>3092.939494734872</v>
       </c>
       <c r="O41" t="n">
-        <v>4114.52506777933</v>
+        <v>3839.273971351772</v>
       </c>
       <c r="P41" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q41" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R41" t="n">
         <v>4785.883460762037</v>
@@ -7490,19 +7490,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J42" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K42" t="n">
-        <v>488.1430095111811</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L42" t="n">
-        <v>843.4975491433823</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M42" t="n">
-        <v>1277.536404075618</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N42" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O42" t="n">
         <v>2136.002693439725</v>
@@ -7572,16 +7572,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K43" t="n">
-        <v>336.6421130738839</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L43" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M43" t="n">
-        <v>983.9813277239498</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N43" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O43" t="n">
         <v>1611.825859961355</v>
@@ -7593,28 +7593,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R43" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S43" t="n">
-        <v>1628.774119163341</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T43" t="n">
-        <v>1406.816559682884</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U43" t="n">
-        <v>1117.711255224911</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V43" t="n">
-        <v>863.0267670190239</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W43" t="n">
-        <v>573.6095969820633</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X43" t="n">
-        <v>345.620046084046</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.8274669405158</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="44">
@@ -7633,13 +7633,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E44" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F44" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G44" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H44" t="n">
         <v>141.5554198924156</v>
@@ -7648,28 +7648,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J44" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K44" t="n">
-        <v>1086.017693327009</v>
+        <v>597.7080858612028</v>
       </c>
       <c r="L44" t="n">
-        <v>1935.127558962002</v>
+        <v>1446.817951496195</v>
       </c>
       <c r="M44" t="n">
-        <v>2896.53243590959</v>
+        <v>2408.222828443783</v>
       </c>
       <c r="N44" t="n">
-        <v>3628.004506520298</v>
+        <v>3034.172689002973</v>
       </c>
       <c r="O44" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P44" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q44" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R44" t="n">
         <v>4785.883460762037</v>
@@ -7684,13 +7684,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V44" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W44" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X44" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y44" t="n">
         <v>2765.933610202796</v>
@@ -7727,19 +7727,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J45" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K45" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L45" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M45" t="n">
-        <v>1277.536404075618</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N45" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O45" t="n">
         <v>2136.002693439725</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>449.4410924000626</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C46" t="n">
-        <v>280.5049094721558</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D46" t="n">
-        <v>130.38827005982</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E46" t="n">
-        <v>130.38827005982</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F46" t="n">
-        <v>130.38827005982</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G46" t="n">
         <v>95.71766921524075</v>
@@ -7809,16 +7809,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K46" t="n">
-        <v>336.6421130738839</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L46" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M46" t="n">
-        <v>983.9813277239498</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N46" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O46" t="n">
         <v>1611.825859961355</v>
@@ -7833,25 +7833,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S46" t="n">
-        <v>1913.078649972671</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T46" t="n">
-        <v>1913.078649972671</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U46" t="n">
-        <v>1623.973345514697</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V46" t="n">
-        <v>1369.288857308811</v>
+        <v>954.8666056896121</v>
       </c>
       <c r="W46" t="n">
-        <v>1079.87168727185</v>
+        <v>665.4494356526516</v>
       </c>
       <c r="X46" t="n">
-        <v>851.8821363738325</v>
+        <v>437.4598847546342</v>
       </c>
       <c r="Y46" t="n">
-        <v>631.0895572303024</v>
+        <v>216.6673056111041</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747122</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>90.70213529832193</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534096</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>74.60209794880339</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>74.60209794880376</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990523</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>54.4525265798508</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>90.70213529832193</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>74.6020979488037</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990523</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>6.967434612012596</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>90.7021352983229</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9184,10 +9184,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>74.60209794880339</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990523</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>355.9152969323757</v>
+        <v>90.7021352983225</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K21" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990523</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>260.0527905534084</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>260.0527905534096</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>74.60209794880365</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990523</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>143.6003062724733</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>385.4209114750762</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9892,10 +9892,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K27" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990523</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>373.2543023942278</v>
+        <v>90.7021352983229</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>74.6020979488037</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990523</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>231.999368364092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>90.7021352983225</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K33" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990523</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>296.9138238411135</v>
+        <v>90.7021352983225</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>74.6020979488037</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990523</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>90.7021352983229</v>
       </c>
       <c r="O38" t="n">
-        <v>260.0527905534082</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>74.6020979488037</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990523</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>296.9138238411135</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>262.4382983412813</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K42" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990523</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11308,19 +11308,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>204.1576872221542</v>
+        <v>97.56959626102378</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>74.6020979488033</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990523</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>25.68090799102669</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>227.643322664144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>60.09184015003279</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>150.600347212937</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>222.1381275760327</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>65.48918061573582</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>35.6218453343518</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>159.7049776796468</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3680263570149123</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T25" t="n">
-        <v>219.7379838856521</v>
+        <v>185.414089049519</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>151.0132804339139</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24621,7 +24621,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I28" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>60.09184015003279</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>85.1687492389883</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.92144028388266</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S31" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2142514133935</v>
+        <v>60.09184015003274</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>161.4979673836806</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>128.2790503298916</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>58.5255763954972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>90.92144028388266</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2142514133935</v>
+        <v>60.09184015003274</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>151.0132804339152</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>135.403291929162</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>151.013280433915</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25806,7 +25806,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>60.09184015003279</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>60.09184015003255</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>131.7461555655397</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H46" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.92144028388266</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S46" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>918864.1121778387</v>
+        <v>918864.1121778388</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>918864.1121778387</v>
+        <v>918864.1121778389</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>918864.1121778387</v>
+        <v>918864.1121778388</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>918864.1121778387</v>
+        <v>918864.1121778388</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>918864.1121778387</v>
+        <v>918864.1121778388</v>
       </c>
     </row>
   </sheetData>
@@ -26319,31 +26319,31 @@
         <v>513151.1061651767</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="E2" t="n">
+        <v>495636.6275796161</v>
+      </c>
+      <c r="F2" t="n">
+        <v>495636.6275796162</v>
+      </c>
+      <c r="G2" t="n">
+        <v>495636.6275796162</v>
+      </c>
+      <c r="H2" t="n">
         <v>495636.6275796163</v>
-      </c>
-      <c r="F2" t="n">
-        <v>495636.6275796163</v>
-      </c>
-      <c r="G2" t="n">
-        <v>495636.6275796163</v>
-      </c>
-      <c r="H2" t="n">
-        <v>495636.6275796164</v>
       </c>
       <c r="I2" t="n">
         <v>495636.6275796163</v>
       </c>
       <c r="J2" t="n">
-        <v>495636.6275796164</v>
+        <v>495636.6275796161</v>
       </c>
       <c r="K2" t="n">
         <v>495636.6275796162</v>
       </c>
       <c r="L2" t="n">
-        <v>495636.6275796166</v>
+        <v>495636.6275796163</v>
       </c>
       <c r="M2" t="n">
         <v>495636.6275796163</v>
@@ -26352,10 +26352,10 @@
         <v>495636.6275796163</v>
       </c>
       <c r="O2" t="n">
-        <v>495636.6275796164</v>
+        <v>495636.6275796162</v>
       </c>
       <c r="P2" t="n">
-        <v>495636.6275796162</v>
+        <v>495636.6275796163</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>708251.0967518284</v>
+        <v>708251.096751828</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130130.2399694095</v>
+        <v>130130.2399694094</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26426,40 +26426,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>27510.00885503007</v>
+        <v>27510.00885503009</v>
       </c>
       <c r="F4" t="n">
-        <v>27510.00885503008</v>
+        <v>27510.00885503009</v>
       </c>
       <c r="G4" t="n">
-        <v>27510.00885503007</v>
+        <v>27510.0088550301</v>
       </c>
       <c r="H4" t="n">
-        <v>27510.00885503006</v>
+        <v>27510.00885503009</v>
       </c>
       <c r="I4" t="n">
-        <v>27510.00885503008</v>
+        <v>27510.0088550301</v>
       </c>
       <c r="J4" t="n">
-        <v>27510.00885503007</v>
+        <v>27510.00885503011</v>
       </c>
       <c r="K4" t="n">
-        <v>27510.00885503008</v>
+        <v>27510.0088550301</v>
       </c>
       <c r="L4" t="n">
-        <v>27510.00885503007</v>
+        <v>27510.00885503009</v>
       </c>
       <c r="M4" t="n">
-        <v>27510.00885503008</v>
+        <v>27510.00885503009</v>
       </c>
       <c r="N4" t="n">
-        <v>27510.00885503007</v>
+        <v>27510.0088550301</v>
       </c>
       <c r="O4" t="n">
-        <v>27510.00885503007</v>
+        <v>27510.0088550301</v>
       </c>
       <c r="P4" t="n">
-        <v>27510.00885503008</v>
+        <v>27510.00885503009</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="F5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="G5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="H5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="I5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="J5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="K5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="L5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="M5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="N5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="O5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="P5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-360740.3570405085</v>
+        <v>-360740.3570405087</v>
       </c>
       <c r="C6" t="n">
-        <v>229227.5221740356</v>
+        <v>229227.5221740357</v>
       </c>
       <c r="D6" t="n">
-        <v>229227.5221740358</v>
+        <v>229227.5221740359</v>
       </c>
       <c r="E6" t="n">
-        <v>-336092.1914193114</v>
+        <v>-336792.7705627335</v>
       </c>
       <c r="F6" t="n">
-        <v>372158.905332517</v>
+        <v>371458.3261890945</v>
       </c>
       <c r="G6" t="n">
-        <v>372158.905332517</v>
+        <v>371458.3261890945</v>
       </c>
       <c r="H6" t="n">
-        <v>372158.9053325172</v>
+        <v>371458.3261890946</v>
       </c>
       <c r="I6" t="n">
-        <v>372158.905332517</v>
+        <v>371458.3261890946</v>
       </c>
       <c r="J6" t="n">
-        <v>195735.6861399242</v>
+        <v>195035.1069965014</v>
       </c>
       <c r="K6" t="n">
-        <v>372158.9053325169</v>
+        <v>371458.3261890945</v>
       </c>
       <c r="L6" t="n">
-        <v>372158.9053325173</v>
+        <v>371458.3261890946</v>
       </c>
       <c r="M6" t="n">
-        <v>242028.6653631075</v>
+        <v>241328.0862196852</v>
       </c>
       <c r="N6" t="n">
-        <v>372158.9053325171</v>
+        <v>371458.3261890946</v>
       </c>
       <c r="O6" t="n">
-        <v>372158.9053325171</v>
+        <v>371458.3261890945</v>
       </c>
       <c r="P6" t="n">
-        <v>372158.9053325169</v>
+        <v>371458.3261890946</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="F3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="G3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="H3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="I3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="J3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="K3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="L3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="M3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="N3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="O3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="P3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>687.498757273107</v>
+        <v>687.4987572731068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>522.1835924359542</v>
+        <v>522.1835924359539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359542</v>
+        <v>522.1835924359539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359542</v>
+        <v>522.1835924359539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>112.9202716085204</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>149.4639037000065</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>114.7731302731594</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>56.61172114664507</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,10 +27596,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>262.9821018140711</v>
       </c>
       <c r="G5" t="n">
-        <v>281.1542360038007</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27782,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>56.8595961317935</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>181.8434812214565</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>115.1289726160418</v>
+        <v>85.98948845797261</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>277.0062774114811</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930423</v>
       </c>
       <c r="H11" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I11" t="n">
         <v>165.0965164000028</v>
@@ -31764,31 +31764,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K11" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789275</v>
       </c>
       <c r="L11" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841758</v>
       </c>
       <c r="M11" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552359</v>
       </c>
       <c r="N11" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589908</v>
       </c>
       <c r="O11" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843451</v>
       </c>
       <c r="P11" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841877</v>
       </c>
       <c r="Q11" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R11" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S11" t="n">
-        <v>97.58477057168963</v>
+        <v>97.5847705716896</v>
       </c>
       <c r="T11" t="n">
         <v>18.74612542743044</v>
@@ -31837,7 +31837,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I12" t="n">
-        <v>78.88823593111341</v>
+        <v>78.8882359311134</v>
       </c>
       <c r="J12" t="n">
         <v>216.4753490690591</v>
@@ -31846,34 +31846,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L12" t="n">
-        <v>497.4983592063401</v>
+        <v>497.49835920634</v>
       </c>
       <c r="M12" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121553</v>
       </c>
       <c r="N12" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693112</v>
       </c>
       <c r="O12" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828163</v>
       </c>
       <c r="P12" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q12" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967037</v>
       </c>
       <c r="R12" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S12" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557516</v>
       </c>
       <c r="T12" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183843</v>
       </c>
       <c r="U12" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,31 +31910,31 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H13" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I13" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769772</v>
       </c>
       <c r="J13" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K13" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L13" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M13" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N13" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O13" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463858</v>
       </c>
       <c r="P13" t="n">
         <v>232.3276258279595</v>
@@ -31943,13 +31943,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R13" t="n">
-        <v>86.37195109328682</v>
+        <v>86.3719510932868</v>
       </c>
       <c r="S13" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961803</v>
       </c>
       <c r="T13" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629356</v>
       </c>
       <c r="U13" t="n">
         <v>0.1047779430973962</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930423</v>
       </c>
       <c r="H14" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I14" t="n">
         <v>165.0965164000028</v>
@@ -32001,31 +32001,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K14" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789275</v>
       </c>
       <c r="L14" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841758</v>
       </c>
       <c r="M14" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552359</v>
       </c>
       <c r="N14" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589908</v>
       </c>
       <c r="O14" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843451</v>
       </c>
       <c r="P14" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841877</v>
       </c>
       <c r="Q14" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R14" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S14" t="n">
-        <v>97.58477057168963</v>
+        <v>97.5847705716896</v>
       </c>
       <c r="T14" t="n">
         <v>18.74612542743044</v>
@@ -32074,7 +32074,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I15" t="n">
-        <v>78.88823593111341</v>
+        <v>78.8882359311134</v>
       </c>
       <c r="J15" t="n">
         <v>216.4753490690591</v>
@@ -32083,34 +32083,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L15" t="n">
-        <v>497.4983592063401</v>
+        <v>497.49835920634</v>
       </c>
       <c r="M15" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121553</v>
       </c>
       <c r="N15" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693112</v>
       </c>
       <c r="O15" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828163</v>
       </c>
       <c r="P15" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q15" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967037</v>
       </c>
       <c r="R15" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S15" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557516</v>
       </c>
       <c r="T15" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183843</v>
       </c>
       <c r="U15" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,31 +32147,31 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H16" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I16" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769772</v>
       </c>
       <c r="J16" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K16" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L16" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M16" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N16" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O16" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463858</v>
       </c>
       <c r="P16" t="n">
         <v>232.3276258279595</v>
@@ -32180,13 +32180,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R16" t="n">
-        <v>86.37195109328682</v>
+        <v>86.3719510932868</v>
       </c>
       <c r="S16" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961803</v>
       </c>
       <c r="T16" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629356</v>
       </c>
       <c r="U16" t="n">
         <v>0.1047779430973962</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930423</v>
       </c>
       <c r="H17" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I17" t="n">
         <v>165.0965164000028</v>
@@ -32238,31 +32238,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K17" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789275</v>
       </c>
       <c r="L17" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841758</v>
       </c>
       <c r="M17" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552359</v>
       </c>
       <c r="N17" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589908</v>
       </c>
       <c r="O17" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843451</v>
       </c>
       <c r="P17" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841877</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R17" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S17" t="n">
-        <v>97.58477057168963</v>
+        <v>97.5847705716896</v>
       </c>
       <c r="T17" t="n">
         <v>18.74612542743044</v>
@@ -32311,7 +32311,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I18" t="n">
-        <v>78.88823593111341</v>
+        <v>78.8882359311134</v>
       </c>
       <c r="J18" t="n">
         <v>216.4753490690591</v>
@@ -32320,34 +32320,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L18" t="n">
-        <v>497.4983592063401</v>
+        <v>497.49835920634</v>
       </c>
       <c r="M18" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121553</v>
       </c>
       <c r="N18" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693112</v>
       </c>
       <c r="O18" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828163</v>
       </c>
       <c r="P18" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q18" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967037</v>
       </c>
       <c r="R18" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S18" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557516</v>
       </c>
       <c r="T18" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183843</v>
       </c>
       <c r="U18" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,31 +32384,31 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H19" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I19" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769772</v>
       </c>
       <c r="J19" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K19" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L19" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M19" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N19" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O19" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463858</v>
       </c>
       <c r="P19" t="n">
         <v>232.3276258279595</v>
@@ -32417,13 +32417,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R19" t="n">
-        <v>86.37195109328682</v>
+        <v>86.3719510932868</v>
       </c>
       <c r="S19" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961803</v>
       </c>
       <c r="T19" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629356</v>
       </c>
       <c r="U19" t="n">
         <v>0.1047779430973962</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930423</v>
       </c>
       <c r="H20" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I20" t="n">
         <v>165.0965164000028</v>
@@ -32475,31 +32475,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K20" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789275</v>
       </c>
       <c r="L20" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841758</v>
       </c>
       <c r="M20" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552359</v>
       </c>
       <c r="N20" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589908</v>
       </c>
       <c r="O20" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843451</v>
       </c>
       <c r="P20" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841877</v>
       </c>
       <c r="Q20" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R20" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S20" t="n">
-        <v>97.58477057168963</v>
+        <v>97.5847705716896</v>
       </c>
       <c r="T20" t="n">
         <v>18.74612542743044</v>
@@ -32548,7 +32548,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I21" t="n">
-        <v>78.88823593111341</v>
+        <v>78.8882359311134</v>
       </c>
       <c r="J21" t="n">
         <v>216.4753490690591</v>
@@ -32557,34 +32557,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L21" t="n">
-        <v>497.4983592063401</v>
+        <v>497.49835920634</v>
       </c>
       <c r="M21" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121553</v>
       </c>
       <c r="N21" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693112</v>
       </c>
       <c r="O21" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828163</v>
       </c>
       <c r="P21" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q21" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967037</v>
       </c>
       <c r="R21" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S21" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557516</v>
       </c>
       <c r="T21" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183843</v>
       </c>
       <c r="U21" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,31 +32621,31 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H22" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I22" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769772</v>
       </c>
       <c r="J22" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K22" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L22" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M22" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N22" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O22" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463858</v>
       </c>
       <c r="P22" t="n">
         <v>232.3276258279595</v>
@@ -32654,13 +32654,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R22" t="n">
-        <v>86.37195109328682</v>
+        <v>86.3719510932868</v>
       </c>
       <c r="S22" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961803</v>
       </c>
       <c r="T22" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629356</v>
       </c>
       <c r="U22" t="n">
         <v>0.1047779430973962</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930423</v>
       </c>
       <c r="H23" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I23" t="n">
         <v>165.0965164000028</v>
@@ -32712,31 +32712,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K23" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789275</v>
       </c>
       <c r="L23" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841758</v>
       </c>
       <c r="M23" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552359</v>
       </c>
       <c r="N23" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589908</v>
       </c>
       <c r="O23" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843451</v>
       </c>
       <c r="P23" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841877</v>
       </c>
       <c r="Q23" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R23" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S23" t="n">
-        <v>97.58477057168963</v>
+        <v>97.5847705716896</v>
       </c>
       <c r="T23" t="n">
         <v>18.74612542743044</v>
@@ -32785,7 +32785,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I24" t="n">
-        <v>78.88823593111341</v>
+        <v>78.8882359311134</v>
       </c>
       <c r="J24" t="n">
         <v>216.4753490690591</v>
@@ -32794,34 +32794,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L24" t="n">
-        <v>497.4983592063401</v>
+        <v>497.49835920634</v>
       </c>
       <c r="M24" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121553</v>
       </c>
       <c r="N24" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693112</v>
       </c>
       <c r="O24" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828163</v>
       </c>
       <c r="P24" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q24" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967037</v>
       </c>
       <c r="R24" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S24" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557516</v>
       </c>
       <c r="T24" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183843</v>
       </c>
       <c r="U24" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,31 +32858,31 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H25" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I25" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769772</v>
       </c>
       <c r="J25" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K25" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L25" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M25" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N25" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O25" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463858</v>
       </c>
       <c r="P25" t="n">
         <v>232.3276258279595</v>
@@ -32891,13 +32891,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R25" t="n">
-        <v>86.37195109328682</v>
+        <v>86.3719510932868</v>
       </c>
       <c r="S25" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961803</v>
       </c>
       <c r="T25" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629356</v>
       </c>
       <c r="U25" t="n">
         <v>0.1047779430973962</v>
@@ -32937,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930423</v>
       </c>
       <c r="H26" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I26" t="n">
         <v>165.0965164000028</v>
@@ -32949,31 +32949,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K26" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789275</v>
       </c>
       <c r="L26" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841758</v>
       </c>
       <c r="M26" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552359</v>
       </c>
       <c r="N26" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589908</v>
       </c>
       <c r="O26" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843451</v>
       </c>
       <c r="P26" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841877</v>
       </c>
       <c r="Q26" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R26" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S26" t="n">
-        <v>97.58477057168963</v>
+        <v>97.5847705716896</v>
       </c>
       <c r="T26" t="n">
         <v>18.74612542743044</v>
@@ -33022,7 +33022,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I27" t="n">
-        <v>78.88823593111341</v>
+        <v>78.8882359311134</v>
       </c>
       <c r="J27" t="n">
         <v>216.4753490690591</v>
@@ -33031,34 +33031,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L27" t="n">
-        <v>497.4983592063401</v>
+        <v>497.49835920634</v>
       </c>
       <c r="M27" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121553</v>
       </c>
       <c r="N27" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693112</v>
       </c>
       <c r="O27" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828163</v>
       </c>
       <c r="P27" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q27" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967037</v>
       </c>
       <c r="R27" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S27" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557516</v>
       </c>
       <c r="T27" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183843</v>
       </c>
       <c r="U27" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,31 +33095,31 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H28" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I28" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769772</v>
       </c>
       <c r="J28" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K28" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L28" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M28" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N28" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O28" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463858</v>
       </c>
       <c r="P28" t="n">
         <v>232.3276258279595</v>
@@ -33128,13 +33128,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R28" t="n">
-        <v>86.37195109328682</v>
+        <v>86.3719510932868</v>
       </c>
       <c r="S28" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961803</v>
       </c>
       <c r="T28" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629356</v>
       </c>
       <c r="U28" t="n">
         <v>0.1047779430973962</v>
@@ -33174,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930423</v>
       </c>
       <c r="H29" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I29" t="n">
         <v>165.0965164000028</v>
@@ -33186,31 +33186,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K29" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789275</v>
       </c>
       <c r="L29" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841758</v>
       </c>
       <c r="M29" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552359</v>
       </c>
       <c r="N29" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589908</v>
       </c>
       <c r="O29" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843451</v>
       </c>
       <c r="P29" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841877</v>
       </c>
       <c r="Q29" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R29" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S29" t="n">
-        <v>97.58477057168963</v>
+        <v>97.5847705716896</v>
       </c>
       <c r="T29" t="n">
         <v>18.74612542743044</v>
@@ -33259,7 +33259,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I30" t="n">
-        <v>78.88823593111341</v>
+        <v>78.8882359311134</v>
       </c>
       <c r="J30" t="n">
         <v>216.4753490690591</v>
@@ -33268,34 +33268,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L30" t="n">
-        <v>497.4983592063401</v>
+        <v>497.49835920634</v>
       </c>
       <c r="M30" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121553</v>
       </c>
       <c r="N30" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693112</v>
       </c>
       <c r="O30" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828163</v>
       </c>
       <c r="P30" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q30" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967037</v>
       </c>
       <c r="R30" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S30" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557516</v>
       </c>
       <c r="T30" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183843</v>
       </c>
       <c r="U30" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,31 +33332,31 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H31" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I31" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769772</v>
       </c>
       <c r="J31" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K31" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L31" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M31" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N31" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O31" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463858</v>
       </c>
       <c r="P31" t="n">
         <v>232.3276258279595</v>
@@ -33365,13 +33365,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R31" t="n">
-        <v>86.37195109328682</v>
+        <v>86.3719510932868</v>
       </c>
       <c r="S31" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961803</v>
       </c>
       <c r="T31" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629356</v>
       </c>
       <c r="U31" t="n">
         <v>0.1047779430973962</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930423</v>
       </c>
       <c r="H32" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I32" t="n">
         <v>165.0965164000028</v>
@@ -33423,31 +33423,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K32" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789275</v>
       </c>
       <c r="L32" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841758</v>
       </c>
       <c r="M32" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552359</v>
       </c>
       <c r="N32" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589908</v>
       </c>
       <c r="O32" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843451</v>
       </c>
       <c r="P32" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841877</v>
       </c>
       <c r="Q32" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R32" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S32" t="n">
-        <v>97.58477057168963</v>
+        <v>97.5847705716896</v>
       </c>
       <c r="T32" t="n">
         <v>18.74612542743044</v>
@@ -33496,7 +33496,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I33" t="n">
-        <v>78.88823593111341</v>
+        <v>78.8882359311134</v>
       </c>
       <c r="J33" t="n">
         <v>216.4753490690591</v>
@@ -33505,34 +33505,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L33" t="n">
-        <v>497.4983592063401</v>
+        <v>497.49835920634</v>
       </c>
       <c r="M33" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121553</v>
       </c>
       <c r="N33" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693112</v>
       </c>
       <c r="O33" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828163</v>
       </c>
       <c r="P33" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q33" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967037</v>
       </c>
       <c r="R33" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S33" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557516</v>
       </c>
       <c r="T33" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183843</v>
       </c>
       <c r="U33" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,31 +33569,31 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H34" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I34" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769772</v>
       </c>
       <c r="J34" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K34" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L34" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M34" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N34" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O34" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463858</v>
       </c>
       <c r="P34" t="n">
         <v>232.3276258279595</v>
@@ -33602,13 +33602,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R34" t="n">
-        <v>86.37195109328682</v>
+        <v>86.3719510932868</v>
       </c>
       <c r="S34" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961803</v>
       </c>
       <c r="T34" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629356</v>
       </c>
       <c r="U34" t="n">
         <v>0.1047779430973962</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930423</v>
       </c>
       <c r="H35" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I35" t="n">
         <v>165.0965164000028</v>
@@ -33660,31 +33660,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K35" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789275</v>
       </c>
       <c r="L35" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841758</v>
       </c>
       <c r="M35" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552359</v>
       </c>
       <c r="N35" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589908</v>
       </c>
       <c r="O35" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843451</v>
       </c>
       <c r="P35" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841877</v>
       </c>
       <c r="Q35" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R35" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S35" t="n">
-        <v>97.58477057168963</v>
+        <v>97.5847705716896</v>
       </c>
       <c r="T35" t="n">
         <v>18.74612542743044</v>
@@ -33733,7 +33733,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I36" t="n">
-        <v>78.88823593111341</v>
+        <v>78.8882359311134</v>
       </c>
       <c r="J36" t="n">
         <v>216.4753490690591</v>
@@ -33742,34 +33742,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L36" t="n">
-        <v>497.4983592063401</v>
+        <v>497.49835920634</v>
       </c>
       <c r="M36" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121553</v>
       </c>
       <c r="N36" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693112</v>
       </c>
       <c r="O36" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828163</v>
       </c>
       <c r="P36" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q36" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967037</v>
       </c>
       <c r="R36" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S36" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557516</v>
       </c>
       <c r="T36" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183843</v>
       </c>
       <c r="U36" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,31 +33806,31 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H37" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I37" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769772</v>
       </c>
       <c r="J37" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K37" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L37" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M37" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N37" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O37" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463858</v>
       </c>
       <c r="P37" t="n">
         <v>232.3276258279595</v>
@@ -33839,13 +33839,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R37" t="n">
-        <v>86.37195109328682</v>
+        <v>86.3719510932868</v>
       </c>
       <c r="S37" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961803</v>
       </c>
       <c r="T37" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629356</v>
       </c>
       <c r="U37" t="n">
         <v>0.1047779430973962</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930423</v>
       </c>
       <c r="H38" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I38" t="n">
         <v>165.0965164000028</v>
@@ -33897,31 +33897,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K38" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789275</v>
       </c>
       <c r="L38" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841758</v>
       </c>
       <c r="M38" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552359</v>
       </c>
       <c r="N38" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589908</v>
       </c>
       <c r="O38" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843451</v>
       </c>
       <c r="P38" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841877</v>
       </c>
       <c r="Q38" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R38" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S38" t="n">
-        <v>97.58477057168963</v>
+        <v>97.5847705716896</v>
       </c>
       <c r="T38" t="n">
         <v>18.74612542743044</v>
@@ -33970,7 +33970,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I39" t="n">
-        <v>78.88823593111341</v>
+        <v>78.8882359311134</v>
       </c>
       <c r="J39" t="n">
         <v>216.4753490690591</v>
@@ -33979,34 +33979,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L39" t="n">
-        <v>497.4983592063401</v>
+        <v>497.49835920634</v>
       </c>
       <c r="M39" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121553</v>
       </c>
       <c r="N39" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693112</v>
       </c>
       <c r="O39" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828163</v>
       </c>
       <c r="P39" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q39" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967037</v>
       </c>
       <c r="R39" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S39" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557516</v>
       </c>
       <c r="T39" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183843</v>
       </c>
       <c r="U39" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,31 +34043,31 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H40" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I40" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769772</v>
       </c>
       <c r="J40" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K40" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L40" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M40" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N40" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O40" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463858</v>
       </c>
       <c r="P40" t="n">
         <v>232.3276258279595</v>
@@ -34076,13 +34076,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R40" t="n">
-        <v>86.37195109328682</v>
+        <v>86.3719510932868</v>
       </c>
       <c r="S40" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961803</v>
       </c>
       <c r="T40" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629356</v>
       </c>
       <c r="U40" t="n">
         <v>0.1047779430973962</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930423</v>
       </c>
       <c r="H41" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I41" t="n">
         <v>165.0965164000028</v>
@@ -34134,31 +34134,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K41" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789275</v>
       </c>
       <c r="L41" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841758</v>
       </c>
       <c r="M41" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552359</v>
       </c>
       <c r="N41" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589908</v>
       </c>
       <c r="O41" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843451</v>
       </c>
       <c r="P41" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841877</v>
       </c>
       <c r="Q41" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R41" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S41" t="n">
-        <v>97.58477057168963</v>
+        <v>97.5847705716896</v>
       </c>
       <c r="T41" t="n">
         <v>18.74612542743044</v>
@@ -34207,7 +34207,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I42" t="n">
-        <v>78.88823593111341</v>
+        <v>78.8882359311134</v>
       </c>
       <c r="J42" t="n">
         <v>216.4753490690591</v>
@@ -34216,34 +34216,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L42" t="n">
-        <v>497.4983592063401</v>
+        <v>497.49835920634</v>
       </c>
       <c r="M42" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121553</v>
       </c>
       <c r="N42" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693112</v>
       </c>
       <c r="O42" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828163</v>
       </c>
       <c r="P42" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q42" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967037</v>
       </c>
       <c r="R42" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S42" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557516</v>
       </c>
       <c r="T42" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183843</v>
       </c>
       <c r="U42" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,31 +34280,31 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H43" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I43" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769772</v>
       </c>
       <c r="J43" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K43" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L43" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M43" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N43" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O43" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463858</v>
       </c>
       <c r="P43" t="n">
         <v>232.3276258279595</v>
@@ -34313,13 +34313,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R43" t="n">
-        <v>86.37195109328682</v>
+        <v>86.3719510932868</v>
       </c>
       <c r="S43" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961803</v>
       </c>
       <c r="T43" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629356</v>
       </c>
       <c r="U43" t="n">
         <v>0.1047779430973962</v>
@@ -34359,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930423</v>
       </c>
       <c r="H44" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I44" t="n">
         <v>165.0965164000028</v>
@@ -34371,31 +34371,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K44" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789275</v>
       </c>
       <c r="L44" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841758</v>
       </c>
       <c r="M44" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552359</v>
       </c>
       <c r="N44" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589908</v>
       </c>
       <c r="O44" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843451</v>
       </c>
       <c r="P44" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841877</v>
       </c>
       <c r="Q44" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R44" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S44" t="n">
-        <v>97.58477057168963</v>
+        <v>97.5847705716896</v>
       </c>
       <c r="T44" t="n">
         <v>18.74612542743044</v>
@@ -34444,7 +34444,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I45" t="n">
-        <v>78.88823593111341</v>
+        <v>78.8882359311134</v>
       </c>
       <c r="J45" t="n">
         <v>216.4753490690591</v>
@@ -34453,34 +34453,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L45" t="n">
-        <v>497.4983592063401</v>
+        <v>497.49835920634</v>
       </c>
       <c r="M45" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121553</v>
       </c>
       <c r="N45" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693112</v>
       </c>
       <c r="O45" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828163</v>
       </c>
       <c r="P45" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q45" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967037</v>
       </c>
       <c r="R45" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S45" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557516</v>
       </c>
       <c r="T45" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183843</v>
       </c>
       <c r="U45" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,31 +34517,31 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H46" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I46" t="n">
-        <v>57.76757262769773</v>
+        <v>57.76757262769772</v>
       </c>
       <c r="J46" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K46" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L46" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M46" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N46" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O46" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463858</v>
       </c>
       <c r="P46" t="n">
         <v>232.3276258279595</v>
@@ -34550,13 +34550,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R46" t="n">
-        <v>86.37195109328682</v>
+        <v>86.3719510932868</v>
       </c>
       <c r="S46" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961803</v>
       </c>
       <c r="T46" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629356</v>
       </c>
       <c r="U46" t="n">
         <v>0.1047779430973962</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>351.5124954532401</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K11" t="n">
-        <v>648.7905592051118</v>
+        <v>324.6451466339469</v>
       </c>
       <c r="L11" t="n">
-        <v>530.7276537125106</v>
+        <v>857.686732964639</v>
       </c>
       <c r="M11" t="n">
-        <v>521.6025038279633</v>
+        <v>971.1160373207957</v>
       </c>
       <c r="N11" t="n">
-        <v>534.7029901624001</v>
+        <v>972.049914574384</v>
       </c>
       <c r="O11" t="n">
-        <v>872.2350916254038</v>
+        <v>751.487700916068</v>
       </c>
       <c r="P11" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289181</v>
       </c>
       <c r="Q11" t="n">
-        <v>452.4583361370096</v>
+        <v>240.1433454771048</v>
       </c>
       <c r="R11" t="n">
-        <v>119.1340348585825</v>
+        <v>53.41761498560004</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>164.2398203511958</v>
+        <v>89.63772240239237</v>
       </c>
       <c r="K12" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M12" t="n">
-        <v>438.4230857901371</v>
+        <v>438.423085790137</v>
       </c>
       <c r="N12" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859779</v>
       </c>
       <c r="O12" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383719</v>
       </c>
       <c r="P12" t="n">
-        <v>303.5588430275571</v>
+        <v>378.1609409763607</v>
       </c>
       <c r="Q12" t="n">
         <v>152.4976168106822</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.45049712806878</v>
+        <v>42.45049712806875</v>
       </c>
       <c r="K13" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L13" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M13" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N13" t="n">
         <v>338.0866917389735</v>
@@ -35585,10 +35585,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P13" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332483</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>351.5124954532401</v>
+        <v>236.8684068610171</v>
       </c>
       <c r="K14" t="n">
-        <v>648.7905592051118</v>
+        <v>648.7905592051117</v>
       </c>
       <c r="L14" t="n">
-        <v>530.7276537125106</v>
+        <v>857.686732964639</v>
       </c>
       <c r="M14" t="n">
-        <v>521.6025038279633</v>
+        <v>521.6025038279632</v>
       </c>
       <c r="N14" t="n">
-        <v>534.7029901624001</v>
+        <v>534.7029901623998</v>
       </c>
       <c r="O14" t="n">
-        <v>872.2350916254038</v>
+        <v>872.2350916254037</v>
       </c>
       <c r="P14" t="n">
         <v>706.3775386004008</v>
       </c>
       <c r="Q14" t="n">
-        <v>452.4583361370096</v>
+        <v>240.1433454771048</v>
       </c>
       <c r="R14" t="n">
         <v>119.1340348585825</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K15" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M15" t="n">
-        <v>438.4230857901371</v>
+        <v>438.423085790137</v>
       </c>
       <c r="N15" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859779</v>
       </c>
       <c r="O15" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383719</v>
       </c>
       <c r="P15" t="n">
-        <v>303.5588430275571</v>
+        <v>303.558843027557</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.45049712806878</v>
+        <v>42.45049712806875</v>
       </c>
       <c r="K16" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L16" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M16" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N16" t="n">
         <v>338.0866917389735</v>
@@ -35822,10 +35822,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P16" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332483</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>182.4158802811663</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K17" t="n">
-        <v>331.6125812459596</v>
+        <v>648.7905592051117</v>
       </c>
       <c r="L17" t="n">
-        <v>857.6867329646391</v>
+        <v>440.0255184141885</v>
       </c>
       <c r="M17" t="n">
-        <v>521.6025038279633</v>
+        <v>521.6025038279632</v>
       </c>
       <c r="N17" t="n">
-        <v>972.0499145743842</v>
+        <v>625.4051254607227</v>
       </c>
       <c r="O17" t="n">
-        <v>872.2350916254038</v>
+        <v>872.2350916254037</v>
       </c>
       <c r="P17" t="n">
         <v>706.3775386004008</v>
       </c>
       <c r="Q17" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R17" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>164.2398203511958</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K18" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M18" t="n">
-        <v>438.4230857901371</v>
+        <v>438.423085790137</v>
       </c>
       <c r="N18" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859779</v>
       </c>
       <c r="O18" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383719</v>
       </c>
       <c r="P18" t="n">
-        <v>303.5588430275571</v>
+        <v>303.558843027557</v>
       </c>
       <c r="Q18" t="n">
         <v>152.4976168106822</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.45049712806878</v>
+        <v>42.45049712806875</v>
       </c>
       <c r="K19" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L19" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M19" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N19" t="n">
         <v>338.0866917389735</v>
@@ -36059,10 +36059,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P19" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>182.4158802811663</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K20" t="n">
-        <v>324.645146633947</v>
+        <v>648.7905592051117</v>
       </c>
       <c r="L20" t="n">
-        <v>795.9408153465644</v>
+        <v>530.727653712511</v>
       </c>
       <c r="M20" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279632</v>
       </c>
       <c r="N20" t="n">
-        <v>972.0499145743842</v>
+        <v>534.7029901623998</v>
       </c>
       <c r="O20" t="n">
-        <v>491.4349103626585</v>
+        <v>872.2350916254037</v>
       </c>
       <c r="P20" t="n">
         <v>706.3775386004008</v>
       </c>
       <c r="Q20" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R20" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K21" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L21" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M21" t="n">
-        <v>438.4230857901371</v>
+        <v>438.423085790137</v>
       </c>
       <c r="N21" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859779</v>
       </c>
       <c r="O21" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383719</v>
       </c>
       <c r="P21" t="n">
-        <v>303.5588430275571</v>
+        <v>303.558843027557</v>
       </c>
       <c r="Q21" t="n">
         <v>152.4976168106822</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.45049712806878</v>
+        <v>42.45049712806875</v>
       </c>
       <c r="K22" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L22" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M22" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N22" t="n">
         <v>338.0866917389735</v>
@@ -36296,10 +36296,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P22" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K23" t="n">
-        <v>584.6979371873555</v>
+        <v>324.6451466339469</v>
       </c>
       <c r="L23" t="n">
-        <v>857.6867329646391</v>
+        <v>857.686732964639</v>
       </c>
       <c r="M23" t="n">
-        <v>971.1160373207958</v>
+        <v>971.1160373207957</v>
       </c>
       <c r="N23" t="n">
-        <v>972.0499145743842</v>
+        <v>972.049914574384</v>
       </c>
       <c r="O23" t="n">
-        <v>491.4349103626585</v>
+        <v>751.487700916068</v>
       </c>
       <c r="P23" t="n">
-        <v>384.5788304289183</v>
+        <v>384.5788304289181</v>
       </c>
       <c r="Q23" t="n">
-        <v>240.1433454771049</v>
+        <v>240.1433454771048</v>
       </c>
       <c r="R23" t="n">
-        <v>53.4176149856001</v>
+        <v>53.41761498560004</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K24" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M24" t="n">
-        <v>438.4230857901371</v>
+        <v>438.423085790137</v>
       </c>
       <c r="N24" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859779</v>
       </c>
       <c r="O24" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383719</v>
       </c>
       <c r="P24" t="n">
-        <v>378.1609409763607</v>
+        <v>303.558843027557</v>
       </c>
       <c r="Q24" t="n">
         <v>152.4976168106822</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.45049712806878</v>
+        <v>42.45049712806875</v>
       </c>
       <c r="K25" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L25" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M25" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N25" t="n">
         <v>338.0866917389735</v>
@@ -36533,10 +36533,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P25" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>182.4158802811663</v>
+        <v>326.0161865536396</v>
       </c>
       <c r="K26" t="n">
-        <v>648.7905592051118</v>
+        <v>324.6451466339469</v>
       </c>
       <c r="L26" t="n">
-        <v>857.6867329646391</v>
+        <v>440.0255184141885</v>
       </c>
       <c r="M26" t="n">
-        <v>907.0234153030395</v>
+        <v>971.1160373207957</v>
       </c>
       <c r="N26" t="n">
-        <v>972.0499145743842</v>
+        <v>972.049914574384</v>
       </c>
       <c r="O26" t="n">
-        <v>491.4349103626585</v>
+        <v>491.4349103626583</v>
       </c>
       <c r="P26" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q26" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R26" t="n">
-        <v>53.4176149856001</v>
+        <v>53.41761498560004</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K27" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L27" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M27" t="n">
-        <v>438.4230857901371</v>
+        <v>438.423085790137</v>
       </c>
       <c r="N27" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859779</v>
       </c>
       <c r="O27" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383719</v>
       </c>
       <c r="P27" t="n">
-        <v>303.5588430275571</v>
+        <v>303.558843027557</v>
       </c>
       <c r="Q27" t="n">
         <v>152.4976168106822</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.45049712806878</v>
+        <v>42.45049712806875</v>
       </c>
       <c r="K28" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L28" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M28" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N28" t="n">
         <v>338.0866917389735</v>
@@ -36770,10 +36770,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P28" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332483</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>182.4158802811663</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K29" t="n">
-        <v>648.7905592051118</v>
+        <v>648.7905592051117</v>
       </c>
       <c r="L29" t="n">
-        <v>857.6867329646391</v>
+        <v>440.0255184141885</v>
       </c>
       <c r="M29" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279632</v>
       </c>
       <c r="N29" t="n">
-        <v>907.9572925566279</v>
+        <v>625.4051254607227</v>
       </c>
       <c r="O29" t="n">
-        <v>491.4349103626585</v>
+        <v>872.2350916254037</v>
       </c>
       <c r="P29" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q29" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R29" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K30" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L30" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M30" t="n">
-        <v>438.4230857901371</v>
+        <v>438.423085790137</v>
       </c>
       <c r="N30" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859779</v>
       </c>
       <c r="O30" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383719</v>
       </c>
       <c r="P30" t="n">
-        <v>303.5588430275571</v>
+        <v>303.558843027557</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.45049712806878</v>
+        <v>42.45049712806875</v>
       </c>
       <c r="K31" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L31" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M31" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N31" t="n">
         <v>338.0866917389735</v>
@@ -37007,10 +37007,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P31" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332483</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>182.4158802811663</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K32" t="n">
-        <v>556.6445149980391</v>
+        <v>648.7905592051117</v>
       </c>
       <c r="L32" t="n">
-        <v>857.6867329646391</v>
+        <v>530.727653712511</v>
       </c>
       <c r="M32" t="n">
-        <v>521.6025038279633</v>
+        <v>521.6025038279632</v>
       </c>
       <c r="N32" t="n">
-        <v>534.7029901624001</v>
+        <v>534.7029901623998</v>
       </c>
       <c r="O32" t="n">
-        <v>872.2350916254038</v>
+        <v>872.2350916254037</v>
       </c>
       <c r="P32" t="n">
         <v>706.3775386004008</v>
       </c>
       <c r="Q32" t="n">
-        <v>452.4583361370096</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R32" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K33" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L33" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M33" t="n">
-        <v>438.4230857901371</v>
+        <v>438.423085790137</v>
       </c>
       <c r="N33" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859779</v>
       </c>
       <c r="O33" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383719</v>
       </c>
       <c r="P33" t="n">
-        <v>303.5588430275571</v>
+        <v>303.558843027557</v>
       </c>
       <c r="Q33" t="n">
         <v>152.4976168106822</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.45049712806878</v>
+        <v>42.45049712806875</v>
       </c>
       <c r="K34" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L34" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M34" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N34" t="n">
         <v>338.0866917389735</v>
@@ -37244,10 +37244,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P34" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>182.4158802811663</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K35" t="n">
-        <v>324.645146633947</v>
+        <v>648.7905592051117</v>
       </c>
       <c r="L35" t="n">
-        <v>736.9393422553021</v>
+        <v>530.727653712511</v>
       </c>
       <c r="M35" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279632</v>
       </c>
       <c r="N35" t="n">
-        <v>972.0499145743842</v>
+        <v>534.7029901623998</v>
       </c>
       <c r="O35" t="n">
-        <v>872.2350916254038</v>
+        <v>872.2350916254037</v>
       </c>
       <c r="P35" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q35" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R35" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K36" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M36" t="n">
-        <v>438.4230857901371</v>
+        <v>438.423085790137</v>
       </c>
       <c r="N36" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859779</v>
       </c>
       <c r="O36" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383719</v>
       </c>
       <c r="P36" t="n">
-        <v>303.5588430275571</v>
+        <v>303.558843027557</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.45049712806878</v>
+        <v>42.45049712806875</v>
       </c>
       <c r="K37" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L37" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M37" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N37" t="n">
         <v>338.0866917389735</v>
@@ -37481,10 +37481,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P37" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332483</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>182.4158802811663</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K38" t="n">
-        <v>324.645146633947</v>
+        <v>648.7905592051117</v>
       </c>
       <c r="L38" t="n">
-        <v>857.6867329646391</v>
+        <v>440.0255184141885</v>
       </c>
       <c r="M38" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279632</v>
       </c>
       <c r="N38" t="n">
-        <v>972.0499145743842</v>
+        <v>625.4051254607227</v>
       </c>
       <c r="O38" t="n">
-        <v>751.4877009160666</v>
+        <v>872.2350916254037</v>
       </c>
       <c r="P38" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q38" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R38" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K39" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M39" t="n">
-        <v>438.4230857901371</v>
+        <v>438.423085790137</v>
       </c>
       <c r="N39" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859779</v>
       </c>
       <c r="O39" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383719</v>
       </c>
       <c r="P39" t="n">
-        <v>303.5588430275571</v>
+        <v>303.558843027557</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.45049712806878</v>
+        <v>42.45049712806875</v>
       </c>
       <c r="K40" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L40" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M40" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N40" t="n">
         <v>338.0866917389735</v>
@@ -37718,10 +37718,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P40" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332483</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>182.4158802811663</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K41" t="n">
-        <v>324.645146633947</v>
+        <v>324.6451466339469</v>
       </c>
       <c r="L41" t="n">
-        <v>736.9393422553021</v>
+        <v>857.686732964639</v>
       </c>
       <c r="M41" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279632</v>
       </c>
       <c r="N41" t="n">
-        <v>972.0499145743842</v>
+        <v>972.049914574384</v>
       </c>
       <c r="O41" t="n">
-        <v>872.2350916254038</v>
+        <v>753.8732087039397</v>
       </c>
       <c r="P41" t="n">
-        <v>384.5788304289183</v>
+        <v>384.5788304289181</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R41" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K42" t="n">
-        <v>306.7515102197696</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L42" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M42" t="n">
-        <v>438.4230857901371</v>
+        <v>438.423085790137</v>
       </c>
       <c r="N42" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859779</v>
       </c>
       <c r="O42" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383719</v>
       </c>
       <c r="P42" t="n">
-        <v>303.5588430275571</v>
+        <v>303.558843027557</v>
       </c>
       <c r="Q42" t="n">
         <v>152.4976168106822</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.45049712806878</v>
+        <v>42.45049712806875</v>
       </c>
       <c r="K43" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L43" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M43" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N43" t="n">
         <v>338.0866917389735</v>
@@ -37955,10 +37955,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P43" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332483</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>351.5124954532401</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K44" t="n">
-        <v>648.7905592051118</v>
+        <v>324.6451466339469</v>
       </c>
       <c r="L44" t="n">
-        <v>857.6867329646391</v>
+        <v>857.686732964639</v>
       </c>
       <c r="M44" t="n">
-        <v>971.1160373207958</v>
+        <v>971.1160373207957</v>
       </c>
       <c r="N44" t="n">
-        <v>738.8606773845543</v>
+        <v>632.2725864234236</v>
       </c>
       <c r="O44" t="n">
-        <v>491.4349103626585</v>
+        <v>491.4349103626583</v>
       </c>
       <c r="P44" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R44" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K45" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M45" t="n">
-        <v>513.0251837389404</v>
+        <v>438.423085790137</v>
       </c>
       <c r="N45" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859779</v>
       </c>
       <c r="O45" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383719</v>
       </c>
       <c r="P45" t="n">
-        <v>303.5588430275571</v>
+        <v>303.558843027557</v>
       </c>
       <c r="Q45" t="n">
         <v>152.4976168106822</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.45049712806878</v>
+        <v>42.45049712806875</v>
       </c>
       <c r="K46" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L46" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M46" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N46" t="n">
         <v>338.0866917389735</v>
@@ -38192,10 +38192,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P46" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332483</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
